--- a/downloads/data/bnr-cvd-2023-table1.xlsx
+++ b/downloads/data/bnr-cvd-2023-table1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="53" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="54" uniqueCount="25">
   <si>
     <t>CVD Event Type (AMI=2, Stroke=1)</t>
   </si>
@@ -86,6 +86,9 @@
   <si>
     <t xml:space="preserve">  Total</t>
   </si>
+  <si>
+    <t>Prepared by Ian Hambleton on 2025-11-19, for the Barbados National Registry</t>
+  </si>
 </sst>
 </file>
 
@@ -8966,7 +8969,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9618,6 +9621,11 @@
         <v>16306</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B1:J1"/>

--- a/downloads/data/bnr-cvd-2023-table1.xlsx
+++ b/downloads/data/bnr-cvd-2023-table1.xlsx
@@ -15,7 +15,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="54" uniqueCount="25">
   <si>
-    <t>CVD Event Type (AMI=2, Stroke=1)</t>
+    <t>Table 1. Annual Event Count by Year</t>
+  </si>
+  <si>
+    <t>CVD Event Type</t>
   </si>
   <si>
     <t>Stroke</t>
@@ -27,7 +30,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Patient sex (1=female, 2=male)</t>
+    <t>Patient Sex</t>
   </si>
   <si>
     <t>Female</t>
@@ -36,58 +39,55 @@
     <t>Male</t>
   </si>
   <si>
-    <t>CVD event year (yyyy)</t>
+    <t>CVD Event Year</t>
   </si>
   <si>
-    <t xml:space="preserve">  2009</t>
+    <t xml:space="preserve">  2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2011</t>
   </si>
   <si>
     <t xml:space="preserve">  2010</t>
   </si>
   <si>
-    <t xml:space="preserve">  2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2023</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Total</t>
   </si>
   <si>
-    <t>Prepared by Ian Hambleton on 2025-11-19, for the Barbados National Registry</t>
+    <t>Prepared by Ian Hambleton on 2025-11-22, for the Barbados National Registry</t>
   </si>
 </sst>
 </file>
@@ -97,127 +97,7 @@
   <numFmts count="1">
     <numFmt numFmtId="166" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="590">
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
+  <fonts count="560">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -2467,7 +2347,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="590">
+  <borders count="560">
     <border>
       <left/>
       <right/>
@@ -6131,216 +6011,6 @@
     </border>
     <border>
       <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="thin"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
       <right style="thin"/>
       <top style="none"/>
       <bottom style="thin"/>
@@ -6602,7 +6272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="590">
+  <cellXfs count="560">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -8692,8 +8362,8 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="523" fillId="0" borderId="523" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="523" fillId="0" borderId="523" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="524" fillId="0" borderId="524" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -8701,19 +8371,19 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="525" fillId="0" borderId="525" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="526" fillId="0" borderId="526" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="527" fillId="0" borderId="527" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="528" fillId="0" borderId="528" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="529" fillId="0" borderId="529" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -8721,7 +8391,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="530" fillId="0" borderId="530" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="531" fillId="0" borderId="531" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -8741,7 +8411,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="535" fillId="0" borderId="535" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="536" fillId="0" borderId="536" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -8749,19 +8419,19 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="537" fillId="0" borderId="537" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="538" fillId="0" borderId="538" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="539" fillId="0" borderId="539" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="540" fillId="0" borderId="540" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="541" fillId="0" borderId="541" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -8769,7 +8439,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="542" fillId="0" borderId="542" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="543" fillId="0" borderId="543" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -8789,7 +8459,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="547" fillId="0" borderId="547" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="548" fillId="0" borderId="548" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -8797,166 +8467,46 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="549" fillId="0" borderId="549" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="550" fillId="0" borderId="550" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="551" fillId="0" borderId="551" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="552" fillId="0" borderId="552" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="553" fillId="0" borderId="553" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="550" fillId="0" borderId="550" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="551" fillId="0" borderId="551" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="552" fillId="0" borderId="552" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="553" fillId="0" borderId="553" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="554" fillId="0" borderId="554" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="555" fillId="0" borderId="555" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="556" fillId="0" borderId="556" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="557" fillId="0" borderId="557" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="558" fillId="0" borderId="558" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="559" fillId="0" borderId="559" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="560" fillId="0" borderId="560" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="561" fillId="0" borderId="561" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="562" fillId="0" borderId="562" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="563" fillId="0" borderId="563" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="564" fillId="0" borderId="564" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="565" fillId="0" borderId="565" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="566" fillId="0" borderId="566" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="567" fillId="0" borderId="567" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="568" fillId="0" borderId="568" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="569" fillId="0" borderId="569" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="570" fillId="0" borderId="570" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="571" fillId="0" borderId="571" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="572" fillId="0" borderId="572" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="573" fillId="0" borderId="573" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="574" fillId="0" borderId="574" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="575" fillId="0" borderId="575" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="576" fillId="0" borderId="576" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="577" fillId="0" borderId="577" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="578" fillId="0" borderId="578" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="579" fillId="0" borderId="579" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="580" fillId="0" borderId="580" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="581" fillId="0" borderId="581" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="582" fillId="0" borderId="582" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="583" fillId="0" borderId="583" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="584" fillId="0" borderId="584" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="585" fillId="0" borderId="585" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="586" fillId="0" borderId="586" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="587" fillId="0" borderId="587" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="588" fillId="0" borderId="588" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="589" fillId="0" borderId="589" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8976,649 +8526,622 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="29" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="30"/>
-      <c r="B2" s="34" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="46" t="s">
-        <v>3</v>
+      <c r="E2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="49"/>
-      <c r="B3" s="53" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="I3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="65" t="s">
+      <c r="J3" s="46" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="68"/>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="49"/>
+      <c r="B4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="72" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="76" t="s">
+      <c r="C4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="78" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="82" t="s">
+      <c r="D4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="84" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="86" t="s">
-        <v>3</v>
+      <c r="E4" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="65" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="68"/>
+      <c r="B5" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="99"/>
+      <c r="D5" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="86" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="105">
-        <v>315</v>
-      </c>
-      <c r="C6" s="108">
-        <v>234</v>
-      </c>
-      <c r="D6" s="111">
-        <v>549</v>
-      </c>
-      <c r="E6" s="114">
-        <v>82</v>
-      </c>
-      <c r="F6" s="117">
-        <v>101</v>
-      </c>
-      <c r="G6" s="120">
-        <v>183</v>
-      </c>
-      <c r="H6" s="123">
-        <v>397</v>
-      </c>
-      <c r="I6" s="126">
-        <v>335</v>
-      </c>
-      <c r="J6" s="129">
-        <v>732</v>
-      </c>
+      <c r="B6" s="91"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="99"/>
     </row>
     <row r="7">
-      <c r="A7" s="132" t="s">
+      <c r="A7" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="135">
-        <v>321</v>
-      </c>
-      <c r="C7" s="138">
-        <v>260</v>
-      </c>
-      <c r="D7" s="141">
-        <v>581</v>
-      </c>
-      <c r="E7" s="144">
-        <v>179</v>
-      </c>
-      <c r="F7" s="147">
-        <v>165</v>
-      </c>
-      <c r="G7" s="150">
-        <v>344</v>
-      </c>
-      <c r="H7" s="153">
-        <v>500</v>
-      </c>
-      <c r="I7" s="156">
-        <v>425</v>
-      </c>
-      <c r="J7" s="159">
-        <v>925</v>
+      <c r="B7" s="105">
+        <v>407</v>
+      </c>
+      <c r="C7" s="108">
+        <v>396</v>
+      </c>
+      <c r="D7" s="111">
+        <v>803</v>
+      </c>
+      <c r="E7" s="114">
+        <v>267</v>
+      </c>
+      <c r="F7" s="117">
+        <v>297</v>
+      </c>
+      <c r="G7" s="120">
+        <v>564</v>
+      </c>
+      <c r="H7" s="123">
+        <v>674</v>
+      </c>
+      <c r="I7" s="126">
+        <v>693</v>
+      </c>
+      <c r="J7" s="129">
+        <v>1367</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="162" t="s">
+      <c r="A8" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="165">
-        <v>302</v>
-      </c>
-      <c r="C8" s="168">
-        <v>261</v>
-      </c>
-      <c r="D8" s="171">
-        <v>563</v>
-      </c>
-      <c r="E8" s="174">
-        <v>126</v>
-      </c>
-      <c r="F8" s="177">
-        <v>168</v>
-      </c>
-      <c r="G8" s="180">
-        <v>294</v>
-      </c>
-      <c r="H8" s="183">
-        <v>428</v>
-      </c>
-      <c r="I8" s="186">
-        <v>429</v>
-      </c>
-      <c r="J8" s="189">
-        <v>857</v>
+      <c r="B8" s="135">
+        <v>384</v>
+      </c>
+      <c r="C8" s="138">
+        <v>384</v>
+      </c>
+      <c r="D8" s="141">
+        <v>768</v>
+      </c>
+      <c r="E8" s="144">
+        <v>257</v>
+      </c>
+      <c r="F8" s="147">
+        <v>313</v>
+      </c>
+      <c r="G8" s="150">
+        <v>570</v>
+      </c>
+      <c r="H8" s="153">
+        <v>641</v>
+      </c>
+      <c r="I8" s="156">
+        <v>697</v>
+      </c>
+      <c r="J8" s="159">
+        <v>1338</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="192" t="s">
+      <c r="A9" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="195">
-        <v>321</v>
-      </c>
-      <c r="C9" s="198">
-        <v>257</v>
-      </c>
-      <c r="D9" s="201">
-        <v>578</v>
-      </c>
-      <c r="E9" s="204">
-        <v>201</v>
-      </c>
-      <c r="F9" s="207">
-        <v>203</v>
-      </c>
-      <c r="G9" s="210">
-        <v>404</v>
-      </c>
-      <c r="H9" s="213">
-        <v>522</v>
-      </c>
-      <c r="I9" s="216">
-        <v>460</v>
-      </c>
-      <c r="J9" s="219">
-        <v>982</v>
+      <c r="B9" s="165">
+        <v>357</v>
+      </c>
+      <c r="C9" s="168">
+        <v>334</v>
+      </c>
+      <c r="D9" s="171">
+        <v>691</v>
+      </c>
+      <c r="E9" s="174">
+        <v>222</v>
+      </c>
+      <c r="F9" s="177">
+        <v>245</v>
+      </c>
+      <c r="G9" s="180">
+        <v>467</v>
+      </c>
+      <c r="H9" s="183">
+        <v>579</v>
+      </c>
+      <c r="I9" s="186">
+        <v>579</v>
+      </c>
+      <c r="J9" s="189">
+        <v>1158</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="222" t="s">
+      <c r="A10" s="192" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="225">
-        <v>367</v>
-      </c>
-      <c r="C10" s="228">
-        <v>327</v>
-      </c>
-      <c r="D10" s="231">
-        <v>694</v>
-      </c>
-      <c r="E10" s="234">
-        <v>161</v>
-      </c>
-      <c r="F10" s="237">
-        <v>191</v>
-      </c>
-      <c r="G10" s="240">
-        <v>352</v>
-      </c>
-      <c r="H10" s="243">
-        <v>528</v>
-      </c>
-      <c r="I10" s="246">
-        <v>518</v>
-      </c>
-      <c r="J10" s="249">
-        <v>1046</v>
+      <c r="B10" s="195">
+        <v>364</v>
+      </c>
+      <c r="C10" s="198">
+        <v>335</v>
+      </c>
+      <c r="D10" s="201">
+        <v>699</v>
+      </c>
+      <c r="E10" s="204">
+        <v>262</v>
+      </c>
+      <c r="F10" s="207">
+        <v>285</v>
+      </c>
+      <c r="G10" s="210">
+        <v>547</v>
+      </c>
+      <c r="H10" s="213">
+        <v>626</v>
+      </c>
+      <c r="I10" s="216">
+        <v>620</v>
+      </c>
+      <c r="J10" s="219">
+        <v>1246</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="252" t="s">
+      <c r="A11" s="222" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="255">
-        <v>316</v>
-      </c>
-      <c r="C11" s="258">
-        <v>268</v>
-      </c>
-      <c r="D11" s="261">
-        <v>584</v>
-      </c>
-      <c r="E11" s="264">
-        <v>190</v>
-      </c>
-      <c r="F11" s="267">
-        <v>220</v>
-      </c>
-      <c r="G11" s="270">
-        <v>410</v>
-      </c>
-      <c r="H11" s="273">
-        <v>506</v>
-      </c>
-      <c r="I11" s="276">
-        <v>488</v>
-      </c>
-      <c r="J11" s="279">
-        <v>994</v>
+      <c r="B11" s="225">
+        <v>396</v>
+      </c>
+      <c r="C11" s="228">
+        <v>362</v>
+      </c>
+      <c r="D11" s="231">
+        <v>758</v>
+      </c>
+      <c r="E11" s="234">
+        <v>276</v>
+      </c>
+      <c r="F11" s="237">
+        <v>271</v>
+      </c>
+      <c r="G11" s="240">
+        <v>547</v>
+      </c>
+      <c r="H11" s="243">
+        <v>672</v>
+      </c>
+      <c r="I11" s="246">
+        <v>633</v>
+      </c>
+      <c r="J11" s="249">
+        <v>1305</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="282" t="s">
+      <c r="A12" s="252" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="285">
-        <v>319</v>
-      </c>
-      <c r="C12" s="288">
-        <v>267</v>
-      </c>
-      <c r="D12" s="291">
-        <v>586</v>
-      </c>
-      <c r="E12" s="294">
-        <v>157</v>
-      </c>
-      <c r="F12" s="297">
-        <v>169</v>
-      </c>
-      <c r="G12" s="300">
-        <v>326</v>
-      </c>
-      <c r="H12" s="303">
-        <v>476</v>
-      </c>
-      <c r="I12" s="306">
-        <v>436</v>
-      </c>
-      <c r="J12" s="309">
-        <v>912</v>
+      <c r="B12" s="255">
+        <v>355</v>
+      </c>
+      <c r="C12" s="258">
+        <v>327</v>
+      </c>
+      <c r="D12" s="261">
+        <v>682</v>
+      </c>
+      <c r="E12" s="264">
+        <v>214</v>
+      </c>
+      <c r="F12" s="267">
+        <v>269</v>
+      </c>
+      <c r="G12" s="270">
+        <v>483</v>
+      </c>
+      <c r="H12" s="273">
+        <v>569</v>
+      </c>
+      <c r="I12" s="276">
+        <v>596</v>
+      </c>
+      <c r="J12" s="279">
+        <v>1165</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="312" t="s">
+      <c r="A13" s="282" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="315">
-        <v>393</v>
-      </c>
-      <c r="C13" s="318">
-        <v>330</v>
-      </c>
-      <c r="D13" s="321">
-        <v>723</v>
-      </c>
-      <c r="E13" s="324">
-        <v>189</v>
-      </c>
-      <c r="F13" s="327">
-        <v>250</v>
-      </c>
-      <c r="G13" s="330">
-        <v>439</v>
-      </c>
-      <c r="H13" s="333">
-        <v>582</v>
-      </c>
-      <c r="I13" s="336">
-        <v>580</v>
-      </c>
-      <c r="J13" s="339">
-        <v>1162</v>
+      <c r="B13" s="285">
+        <v>348</v>
+      </c>
+      <c r="C13" s="288">
+        <v>302</v>
+      </c>
+      <c r="D13" s="291">
+        <v>650</v>
+      </c>
+      <c r="E13" s="294">
+        <v>214</v>
+      </c>
+      <c r="F13" s="297">
+        <v>253</v>
+      </c>
+      <c r="G13" s="300">
+        <v>467</v>
+      </c>
+      <c r="H13" s="303">
+        <v>562</v>
+      </c>
+      <c r="I13" s="306">
+        <v>555</v>
+      </c>
+      <c r="J13" s="309">
+        <v>1117</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="342" t="s">
+      <c r="A14" s="312" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="345">
-        <v>348</v>
-      </c>
-      <c r="C14" s="348">
-        <v>302</v>
-      </c>
-      <c r="D14" s="351">
-        <v>650</v>
-      </c>
-      <c r="E14" s="354">
-        <v>214</v>
-      </c>
-      <c r="F14" s="357">
-        <v>253</v>
-      </c>
-      <c r="G14" s="360">
-        <v>467</v>
-      </c>
-      <c r="H14" s="363">
-        <v>562</v>
-      </c>
-      <c r="I14" s="366">
-        <v>555</v>
-      </c>
-      <c r="J14" s="369">
-        <v>1117</v>
+      <c r="B14" s="315">
+        <v>393</v>
+      </c>
+      <c r="C14" s="318">
+        <v>330</v>
+      </c>
+      <c r="D14" s="321">
+        <v>723</v>
+      </c>
+      <c r="E14" s="324">
+        <v>189</v>
+      </c>
+      <c r="F14" s="327">
+        <v>250</v>
+      </c>
+      <c r="G14" s="330">
+        <v>439</v>
+      </c>
+      <c r="H14" s="333">
+        <v>582</v>
+      </c>
+      <c r="I14" s="336">
+        <v>580</v>
+      </c>
+      <c r="J14" s="339">
+        <v>1162</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="372" t="s">
+      <c r="A15" s="342" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="375">
-        <v>355</v>
-      </c>
-      <c r="C15" s="378">
-        <v>327</v>
-      </c>
-      <c r="D15" s="381">
-        <v>682</v>
-      </c>
-      <c r="E15" s="384">
-        <v>214</v>
-      </c>
-      <c r="F15" s="387">
-        <v>269</v>
-      </c>
-      <c r="G15" s="390">
-        <v>483</v>
-      </c>
-      <c r="H15" s="393">
-        <v>569</v>
-      </c>
-      <c r="I15" s="396">
-        <v>596</v>
-      </c>
-      <c r="J15" s="399">
-        <v>1165</v>
+      <c r="B15" s="345">
+        <v>319</v>
+      </c>
+      <c r="C15" s="348">
+        <v>267</v>
+      </c>
+      <c r="D15" s="351">
+        <v>586</v>
+      </c>
+      <c r="E15" s="354">
+        <v>157</v>
+      </c>
+      <c r="F15" s="357">
+        <v>169</v>
+      </c>
+      <c r="G15" s="360">
+        <v>326</v>
+      </c>
+      <c r="H15" s="363">
+        <v>476</v>
+      </c>
+      <c r="I15" s="366">
+        <v>436</v>
+      </c>
+      <c r="J15" s="369">
+        <v>912</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="402" t="s">
+      <c r="A16" s="372" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="405">
-        <v>396</v>
-      </c>
-      <c r="C16" s="408">
-        <v>362</v>
-      </c>
-      <c r="D16" s="411">
-        <v>758</v>
-      </c>
-      <c r="E16" s="414">
-        <v>276</v>
-      </c>
-      <c r="F16" s="417">
-        <v>271</v>
-      </c>
-      <c r="G16" s="420">
-        <v>547</v>
-      </c>
-      <c r="H16" s="423">
-        <v>672</v>
-      </c>
-      <c r="I16" s="426">
-        <v>633</v>
-      </c>
-      <c r="J16" s="429">
-        <v>1305</v>
+      <c r="B16" s="375">
+        <v>316</v>
+      </c>
+      <c r="C16" s="378">
+        <v>268</v>
+      </c>
+      <c r="D16" s="381">
+        <v>584</v>
+      </c>
+      <c r="E16" s="384">
+        <v>190</v>
+      </c>
+      <c r="F16" s="387">
+        <v>220</v>
+      </c>
+      <c r="G16" s="390">
+        <v>410</v>
+      </c>
+      <c r="H16" s="393">
+        <v>506</v>
+      </c>
+      <c r="I16" s="396">
+        <v>488</v>
+      </c>
+      <c r="J16" s="399">
+        <v>994</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="432" t="s">
+      <c r="A17" s="402" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="435">
-        <v>364</v>
-      </c>
-      <c r="C17" s="438">
-        <v>335</v>
-      </c>
-      <c r="D17" s="441">
-        <v>699</v>
-      </c>
-      <c r="E17" s="444">
-        <v>262</v>
-      </c>
-      <c r="F17" s="447">
-        <v>285</v>
-      </c>
-      <c r="G17" s="450">
-        <v>547</v>
-      </c>
-      <c r="H17" s="453">
-        <v>626</v>
-      </c>
-      <c r="I17" s="456">
-        <v>620</v>
-      </c>
-      <c r="J17" s="459">
-        <v>1246</v>
+      <c r="B17" s="405">
+        <v>367</v>
+      </c>
+      <c r="C17" s="408">
+        <v>327</v>
+      </c>
+      <c r="D17" s="411">
+        <v>694</v>
+      </c>
+      <c r="E17" s="414">
+        <v>161</v>
+      </c>
+      <c r="F17" s="417">
+        <v>191</v>
+      </c>
+      <c r="G17" s="420">
+        <v>352</v>
+      </c>
+      <c r="H17" s="423">
+        <v>528</v>
+      </c>
+      <c r="I17" s="426">
+        <v>518</v>
+      </c>
+      <c r="J17" s="429">
+        <v>1046</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="462" t="s">
+      <c r="A18" s="432" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="465">
-        <v>357</v>
-      </c>
-      <c r="C18" s="468">
-        <v>334</v>
-      </c>
-      <c r="D18" s="471">
-        <v>691</v>
-      </c>
-      <c r="E18" s="474">
-        <v>222</v>
-      </c>
-      <c r="F18" s="477">
-        <v>245</v>
-      </c>
-      <c r="G18" s="480">
-        <v>467</v>
-      </c>
-      <c r="H18" s="483">
-        <v>579</v>
-      </c>
-      <c r="I18" s="486">
-        <v>579</v>
-      </c>
-      <c r="J18" s="489">
-        <v>1158</v>
+      <c r="B18" s="435">
+        <v>321</v>
+      </c>
+      <c r="C18" s="438">
+        <v>257</v>
+      </c>
+      <c r="D18" s="441">
+        <v>578</v>
+      </c>
+      <c r="E18" s="444">
+        <v>201</v>
+      </c>
+      <c r="F18" s="447">
+        <v>203</v>
+      </c>
+      <c r="G18" s="450">
+        <v>404</v>
+      </c>
+      <c r="H18" s="453">
+        <v>522</v>
+      </c>
+      <c r="I18" s="456">
+        <v>460</v>
+      </c>
+      <c r="J18" s="459">
+        <v>982</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="492" t="s">
+      <c r="A19" s="462" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="495">
-        <v>384</v>
-      </c>
-      <c r="C19" s="498">
-        <v>384</v>
-      </c>
-      <c r="D19" s="501">
-        <v>768</v>
-      </c>
-      <c r="E19" s="504">
-        <v>257</v>
-      </c>
-      <c r="F19" s="507">
-        <v>313</v>
-      </c>
-      <c r="G19" s="510">
-        <v>570</v>
-      </c>
-      <c r="H19" s="513">
-        <v>641</v>
-      </c>
-      <c r="I19" s="516">
-        <v>697</v>
-      </c>
-      <c r="J19" s="519">
-        <v>1338</v>
+      <c r="B19" s="465">
+        <v>302</v>
+      </c>
+      <c r="C19" s="468">
+        <v>261</v>
+      </c>
+      <c r="D19" s="471">
+        <v>563</v>
+      </c>
+      <c r="E19" s="474">
+        <v>126</v>
+      </c>
+      <c r="F19" s="477">
+        <v>168</v>
+      </c>
+      <c r="G19" s="480">
+        <v>294</v>
+      </c>
+      <c r="H19" s="483">
+        <v>428</v>
+      </c>
+      <c r="I19" s="486">
+        <v>429</v>
+      </c>
+      <c r="J19" s="489">
+        <v>857</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="522" t="s">
+      <c r="A20" s="492" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="525">
-        <v>407</v>
-      </c>
-      <c r="C20" s="528">
-        <v>396</v>
-      </c>
-      <c r="D20" s="531">
-        <v>803</v>
-      </c>
-      <c r="E20" s="534">
-        <v>267</v>
-      </c>
-      <c r="F20" s="537">
-        <v>297</v>
-      </c>
-      <c r="G20" s="540">
-        <v>564</v>
-      </c>
-      <c r="H20" s="543">
-        <v>674</v>
-      </c>
-      <c r="I20" s="546">
-        <v>693</v>
-      </c>
-      <c r="J20" s="549">
-        <v>1367</v>
+      <c r="B20" s="495">
+        <v>321</v>
+      </c>
+      <c r="C20" s="498">
+        <v>260</v>
+      </c>
+      <c r="D20" s="501">
+        <v>581</v>
+      </c>
+      <c r="E20" s="504">
+        <v>179</v>
+      </c>
+      <c r="F20" s="507">
+        <v>165</v>
+      </c>
+      <c r="G20" s="510">
+        <v>344</v>
+      </c>
+      <c r="H20" s="513">
+        <v>500</v>
+      </c>
+      <c r="I20" s="516">
+        <v>425</v>
+      </c>
+      <c r="J20" s="519">
+        <v>925</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="553" t="s">
+      <c r="A21" s="523" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="557">
-        <v>5265</v>
-      </c>
-      <c r="C21" s="561">
-        <v>4644</v>
-      </c>
-      <c r="D21" s="565">
-        <v>9909</v>
-      </c>
-      <c r="E21" s="569">
-        <v>2997</v>
-      </c>
-      <c r="F21" s="573">
-        <v>3400</v>
-      </c>
-      <c r="G21" s="577">
-        <v>6397</v>
-      </c>
-      <c r="H21" s="581">
-        <v>8262</v>
-      </c>
-      <c r="I21" s="585">
-        <v>8044</v>
-      </c>
-      <c r="J21" s="589">
-        <v>16306</v>
+      <c r="B21" s="527">
+        <v>4950</v>
+      </c>
+      <c r="C21" s="531">
+        <v>4410</v>
+      </c>
+      <c r="D21" s="535">
+        <v>9360</v>
+      </c>
+      <c r="E21" s="539">
+        <v>2915</v>
+      </c>
+      <c r="F21" s="543">
+        <v>3299</v>
+      </c>
+      <c r="G21" s="547">
+        <v>6214</v>
+      </c>
+      <c r="H21" s="551">
+        <v>7865</v>
+      </c>
+      <c r="I21" s="555">
+        <v>7709</v>
+      </c>
+      <c r="J21" s="559">
+        <v>15574</v>
       </c>
     </row>
     <row r="22">
@@ -9628,13 +9151,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B2:J2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
   </mergeCells>
 </worksheet>
 </file>